--- a/examples/wangetal2018/out/ResultFiles/DR_0.5_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_0.5_a.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="169">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -483,7 +489,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1125,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1147,10 +1153,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.4314880034390952</v>
+        <v>0.4409542713685443</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1158,10 +1164,10 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.2061723082975771</v>
+        <v>0.209345061494379</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1172,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1180,10 +1186,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.030307228094813</v>
+        <v>0.03077362125700835</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1194,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1202,10 +1208,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006262789915499293</v>
+        <v>0.006359167003622201</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1213,10 +1219,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01641082429519003</v>
+        <v>0.01666336788688114</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1227,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1238,7 +1244,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1246,10 +1252,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.08015882048441765</v>
+        <v>0.08015882171806268</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1260,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1271,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1282,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1290,10 +1296,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.006556575540363498</v>
+        <v>0.008668358999122201</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1301,10 +1307,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.0673619497637785</v>
+        <v>0.07069507498330105</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1312,10 +1318,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001239495325472723</v>
+        <v>0.001272786304184433</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1326,7 +1332,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1337,7 +1343,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1348,7 +1354,7 @@
         <v>13.54723404173073</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1359,7 +1365,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1370,7 +1376,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1381,7 +1387,7 @@
         <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1392,7 +1398,7 @@
         <v>248.5484</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1411,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1419,10 +1425,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>3121.904520277259</v>
+        <v>3121.904568323399</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1430,10 +1436,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>130.0793550115525</v>
+        <v>130.0793570134749</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1444,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1455,7 +1461,7 @@
         <v>345226167.1209984</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1466,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1477,7 +1483,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1488,7 +1494,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1499,162 +1505,147 @@
         <v>27479180</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>24.24086700823207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="G46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
         <v>750</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>400</v>
       </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46">
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47">
         <v>204776909.6256209</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>97568527.77677986</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>42880729.71859755</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>93</v>
+      <c r="H47">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
+      <c r="G52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B52">
-        <v>4.504137373769013</v>
-      </c>
-      <c r="C52">
-        <v>12.5</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G52">
-        <v>43.04956369937474</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
+      <c r="H52" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53">
-        <v>5.566149989415205</v>
+        <v>4.504137580238835</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1669,7 +1660,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>53.20004889839588</v>
+        <v>43.04956567276832</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1677,10 +1668,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54">
-        <v>3.539497129749228</v>
+        <v>5.566149992379389</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1695,9 +1686,35 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>33.82974241378182</v>
+        <v>53.2000489267269</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55">
+        <v>3.539497129769934</v>
+      </c>
+      <c r="C55">
+        <v>12.5</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G55">
+        <v>33.82974241397972</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
     </row>
@@ -1716,58 +1733,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1775,31 +1792,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2">
-        <v>99.47221318226789</v>
+        <v>99.47222012919337</v>
       </c>
       <c r="G2">
         <v>750</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>7.136755884664709</v>
@@ -1814,16 +1831,16 @@
         <v>7136755.884664709</v>
       </c>
       <c r="O2">
-        <v>6642169.711791999</v>
+        <v>6642169.691428561</v>
       </c>
       <c r="P2">
-        <v>8.994677358812551</v>
+        <v>8.994679453264444</v>
       </c>
       <c r="Q2">
-        <v>0.01477692704605177</v>
+        <v>0.01477693048841873</v>
       </c>
       <c r="R2">
-        <v>24.15294168810608</v>
+        <v>24.15294172433514</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1831,31 +1848,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F3">
-        <v>99.47219791523104</v>
+        <v>99.47220433042546</v>
       </c>
       <c r="G3">
         <v>750</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>7.136755884664709</v>
@@ -1867,19 +1884,19 @@
         <v>18.64113</v>
       </c>
       <c r="N3">
-        <v>6642169.711791999</v>
+        <v>6642169.691428561</v>
       </c>
       <c r="O3">
-        <v>6246168.377402206</v>
+        <v>6246168.340693807</v>
       </c>
       <c r="P3">
-        <v>9.552493662321563</v>
+        <v>9.552495789762386</v>
       </c>
       <c r="Q3">
-        <v>0.01572456984313941</v>
+        <v>0.01572457334810368</v>
       </c>
       <c r="R3">
-        <v>24.89061509451017</v>
+        <v>24.89061516612083</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1887,31 +1904,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4">
-        <v>99.27812349820051</v>
+        <v>99.27812359401813</v>
       </c>
       <c r="G4">
         <v>750</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>7.136755884664709</v>
@@ -1926,16 +1943,16 @@
         <v>7136755.884664709</v>
       </c>
       <c r="O4">
-        <v>6751744.420473909</v>
+        <v>6751744.420280103</v>
       </c>
       <c r="P4">
-        <v>8.834462607806936</v>
+        <v>8.834462639239993</v>
       </c>
       <c r="Q4">
-        <v>0.01450586204172684</v>
+        <v>0.01450586209335261</v>
       </c>
       <c r="R4">
-        <v>23.96037602944012</v>
+        <v>23.96037602977656</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1943,31 +1960,31 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5">
-        <v>81.61979196367409</v>
+        <v>81.6197920356104</v>
       </c>
       <c r="G5">
         <v>750</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>7.136755884664709</v>
@@ -1979,19 +1996,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N5">
-        <v>6751744.420473909</v>
+        <v>6751744.420280103</v>
       </c>
       <c r="O5">
-        <v>6322487.419702402</v>
+        <v>6322487.419305922</v>
       </c>
       <c r="P5">
-        <v>7.745372528209477</v>
+        <v>7.745372555087514</v>
       </c>
       <c r="Q5">
-        <v>0.01274489100768946</v>
+        <v>0.01274489105194243</v>
       </c>
       <c r="R5">
-        <v>24.74307971888089</v>
+        <v>24.74307971964041</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1999,31 +2016,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6">
-        <v>81.61979163912753</v>
+        <v>81.6197916962159</v>
       </c>
       <c r="G6">
         <v>750</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>7.136755884664709</v>
@@ -2035,19 +2052,19 @@
         <v>31.06855</v>
       </c>
       <c r="N6">
-        <v>6322487.419702402</v>
+        <v>6322487.419305922</v>
       </c>
       <c r="O6">
-        <v>5847800.110597962</v>
+        <v>5847800.109999109</v>
       </c>
       <c r="P6">
-        <v>8.36052392743523</v>
+        <v>8.360523951547636</v>
       </c>
       <c r="Q6">
-        <v>0.01379079482076738</v>
+        <v>0.01379079486058446</v>
       </c>
       <c r="R6">
-        <v>25.70687863378781</v>
+        <v>25.70687863507694</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2055,31 +2072,31 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7">
-        <v>81.38048717409774</v>
+        <v>81.38048717449422</v>
       </c>
       <c r="G7">
         <v>750</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>7.136755884664709</v>
@@ -2094,16 +2111,16 @@
         <v>7136755.884664709</v>
       </c>
       <c r="O7">
-        <v>6721103.515826335</v>
+        <v>6721103.515825405</v>
       </c>
       <c r="P7">
-        <v>7.274103262103655</v>
+        <v>7.274103262249506</v>
       </c>
       <c r="Q7">
-        <v>0.01194561368730119</v>
+        <v>0.01194561368754076</v>
       </c>
       <c r="R7">
-        <v>24.01374903405286</v>
+        <v>24.01374903405449</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2111,31 +2128,31 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8">
-        <v>81.3804871675768</v>
+        <v>81.3804871691265</v>
       </c>
       <c r="G8">
         <v>750</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>7.136755884664709</v>
@@ -2147,19 +2164,19 @@
         <v>31.06855</v>
       </c>
       <c r="N8">
-        <v>6721103.515826335</v>
+        <v>6721103.515825405</v>
       </c>
       <c r="O8">
-        <v>6278624.703910805</v>
+        <v>6278624.703906116</v>
       </c>
       <c r="P8">
-        <v>7.775477415586449</v>
+        <v>7.77547741623041</v>
       </c>
       <c r="Q8">
-        <v>0.01279727310694309</v>
+        <v>0.01279727310800325</v>
       </c>
       <c r="R8">
-        <v>24.82754448788923</v>
+        <v>24.8275444878983</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2167,16 +2184,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F9">
         <v>81.22831727516194</v>
@@ -2185,13 +2202,13 @@
         <v>750</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>7.136755884664709</v>
@@ -2223,16 +2240,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F10">
         <v>81.22831727453975</v>
@@ -2241,13 +2258,13 @@
         <v>750</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K10">
         <v>7.136755884664709</v>
@@ -2289,72 +2306,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2363,16 +2380,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.142581412067681</v>
+        <v>1.142581418782571</v>
       </c>
       <c r="I2">
-        <v>43.04956369937474</v>
+        <v>43.04956567276832</v>
       </c>
       <c r="J2">
-        <v>4.504137373769013</v>
+        <v>4.504137580238835</v>
       </c>
       <c r="K2">
-        <v>6040.138300971722</v>
+        <v>6040.138577851882</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2398,16 +2415,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2416,16 +2433,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.220417208127681</v>
+        <v>1.22041720825266</v>
       </c>
       <c r="I3">
-        <v>53.20004889839588</v>
+        <v>53.2000489267269</v>
       </c>
       <c r="J3">
-        <v>5.566149989415205</v>
+        <v>5.566149992379389</v>
       </c>
       <c r="K3">
-        <v>7464.318458805578</v>
+        <v>7464.318462780608</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2451,16 +2468,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2469,16 +2486,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.136675023786562</v>
+        <v>1.136675023787411</v>
       </c>
       <c r="I4">
-        <v>33.82974241378182</v>
+        <v>33.82974241397972</v>
       </c>
       <c r="J4">
-        <v>3.539497129749228</v>
+        <v>3.539497129769934</v>
       </c>
       <c r="K4">
-        <v>4746.536440936309</v>
+        <v>4746.536440964077</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2517,15 +2534,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2">
         <v>7136755.884664709</v>
@@ -2533,23 +2550,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B3">
-        <v>6642169.711791999</v>
+        <v>6642169.691428561</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4">
-        <v>6246168.377402206</v>
+        <v>6246168.340693807</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>7136755.884664709</v>
@@ -2557,31 +2574,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6">
-        <v>6751744.420473909</v>
+        <v>6751744.420280103</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7">
-        <v>6322487.419702402</v>
+        <v>6322487.419305922</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8">
-        <v>5847800.110597962</v>
+        <v>5847800.109999109</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>7136755.884664709</v>
@@ -2589,23 +2606,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10">
-        <v>6721103.515826335</v>
+        <v>6721103.515825405</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11">
-        <v>6278624.703910805</v>
+        <v>6278624.703906116</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>7136755.884664709</v>
@@ -2613,7 +2630,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>6722660.592442918</v>
@@ -2621,7 +2638,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B14">
         <v>6281953.013357846</v>
@@ -2642,36 +2659,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833153452643</v>
+        <v>17.65833155840772</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -2680,15 +2697,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.52050155343</v>
+        <v>1150.520503109405</v>
       </c>
       <c r="G2">
-        <v>8.82673877819213E-06</v>
+        <v>8.961979759354924E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
@@ -2711,7 +2728,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>

--- a/examples/wangetal2018/out/ResultFiles/DR_0.5_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_0.5_a.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="201">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -423,9 +423,87 @@
     <t>PI09</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
@@ -435,19 +513,37 @@
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
   </si>
   <si>
     <t>N03</t>
@@ -1153,7 +1249,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.4409542713685443</v>
+        <v>0.4439662333241327</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1164,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.209345061494379</v>
+        <v>0.2093980820515433</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1186,7 +1282,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03077362125700835</v>
+        <v>0.03078141525287986</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1208,7 +1304,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006359167003622201</v>
+        <v>0.00636077758175204</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1219,7 +1315,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01666336788688114</v>
+        <v>0.01666758819684828</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1241,7 +1337,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1252,7 +1348,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.08015882171806268</v>
+        <v>0.08304241796990988</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1296,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.008668358999122201</v>
+        <v>0.008683418808900143</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1307,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.07069507498330105</v>
+        <v>0.07072423992040713</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1318,7 +1414,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001272786304184433</v>
+        <v>0.001290281819908561</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1384,7 +1480,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -1395,7 +1491,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>248.5484</v>
+        <v>248.5484000000001</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -1425,7 +1521,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>3121.904568323399</v>
+        <v>3234.210514430057</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1436,7 +1532,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>130.0793570134749</v>
+        <v>134.7587714345857</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1458,7 +1554,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>345226167.1209984</v>
+        <v>345226167.1209985</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1543,7 +1639,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1588,7 +1684,7 @@
         <v>750</v>
       </c>
       <c r="B47">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
@@ -1597,13 +1693,13 @@
         <v>94</v>
       </c>
       <c r="E47">
-        <v>204776909.6256209</v>
+        <v>204776909.625621</v>
       </c>
       <c r="F47">
-        <v>97568527.77677986</v>
+        <v>97568527.77677989</v>
       </c>
       <c r="G47">
-        <v>42880729.71859755</v>
+        <v>42880729.71859757</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -1645,7 +1741,7 @@
         <v>104</v>
       </c>
       <c r="B53">
-        <v>4.504137580238835</v>
+        <v>4.658790460224023</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1660,7 +1756,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>43.04956567276832</v>
+        <v>44.52770420535108</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1671,7 +1767,7 @@
         <v>105</v>
       </c>
       <c r="B54">
-        <v>5.566149992379389</v>
+        <v>5.776442802311405</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1686,7 +1782,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>53.2000489267269</v>
+        <v>55.20998178743657</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1697,7 +1793,7 @@
         <v>106</v>
       </c>
       <c r="B55">
-        <v>3.539497129769934</v>
+        <v>3.664143518617159</v>
       </c>
       <c r="C55">
         <v>12.5</v>
@@ -1712,7 +1808,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G55">
-        <v>33.82974241397972</v>
+        <v>35.02108544179805</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1725,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1795,16 +1891,16 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F2">
-        <v>99.47222012919337</v>
+        <v>99.49229285955919</v>
       </c>
       <c r="G2">
         <v>750</v>
@@ -1822,25 +1918,25 @@
         <v>7.136755884664709</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
-        <v>7136755.884664709</v>
+        <v>6805982.981499471</v>
       </c>
       <c r="O2">
-        <v>6642169.691428561</v>
+        <v>6634459.514555964</v>
       </c>
       <c r="P2">
-        <v>8.994679453264444</v>
+        <v>8.534707858065142</v>
       </c>
       <c r="Q2">
-        <v>0.01477693048841873</v>
+        <v>0.0139166006070497</v>
       </c>
       <c r="R2">
-        <v>24.15294172433514</v>
+        <v>24.34935544397675</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1851,16 +1947,16 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F3">
-        <v>99.47220433042546</v>
+        <v>99.49229721603167</v>
       </c>
       <c r="G3">
         <v>750</v>
@@ -1878,25 +1974,25 @@
         <v>7.136755884664709</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>18.64113</v>
+        <v>9.320565</v>
       </c>
       <c r="N3">
-        <v>6642169.691428561</v>
+        <v>6436068.208099627</v>
       </c>
       <c r="O3">
-        <v>6246168.340693807</v>
+        <v>6231398.481258164</v>
       </c>
       <c r="P3">
-        <v>9.552495789762386</v>
+        <v>8.546390391767734</v>
       </c>
       <c r="Q3">
-        <v>0.01572457334810368</v>
+        <v>0.01395698021247559</v>
       </c>
       <c r="R3">
-        <v>24.89061516612083</v>
+        <v>25.1203044933765</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1907,16 +2003,16 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F4">
-        <v>99.27812359401813</v>
+        <v>99.29250899356349</v>
       </c>
       <c r="G4">
         <v>750</v>
@@ -1934,25 +2030,25 @@
         <v>7.136755884664709</v>
       </c>
       <c r="L4">
-        <v>31.5</v>
+        <v>15.75</v>
       </c>
       <c r="M4">
-        <v>19.5731865</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N4">
-        <v>7136755.884664709</v>
+        <v>6944055.769220044</v>
       </c>
       <c r="O4">
-        <v>6751744.420280103</v>
+        <v>6745891.830240281</v>
       </c>
       <c r="P4">
-        <v>8.834462639239993</v>
+        <v>8.517596009256081</v>
       </c>
       <c r="Q4">
-        <v>0.01450586209335261</v>
+        <v>0.0138827261951404</v>
       </c>
       <c r="R4">
-        <v>23.96037602977656</v>
+        <v>24.14882852997299</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1963,16 +2059,16 @@
         <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F5">
-        <v>81.6197920356104</v>
+        <v>81.63418056805209</v>
       </c>
       <c r="G5">
         <v>750</v>
@@ -1990,25 +2086,25 @@
         <v>7.136755884664709</v>
       </c>
       <c r="L5">
-        <v>48.5</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M5">
-        <v>30.1364935</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N5">
-        <v>6751744.420280103</v>
+        <v>6458048.176198864</v>
       </c>
       <c r="O5">
-        <v>6322487.419305922</v>
+        <v>6309231.327035528</v>
       </c>
       <c r="P5">
-        <v>7.745372555087514</v>
+        <v>7.018329049836497</v>
       </c>
       <c r="Q5">
-        <v>0.01274489105194243</v>
+        <v>0.01145809713261237</v>
       </c>
       <c r="R5">
-        <v>24.74307971964041</v>
+        <v>24.96572253847061</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2019,16 +2115,16 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F6">
-        <v>81.6197916962159</v>
+        <v>81.63418068729058</v>
       </c>
       <c r="G6">
         <v>750</v>
@@ -2046,25 +2142,25 @@
         <v>7.136755884664709</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M6">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N6">
-        <v>6322487.419305922</v>
+        <v>5990794.180911144</v>
       </c>
       <c r="O6">
-        <v>5847800.109999109</v>
+        <v>5825077.649435037</v>
       </c>
       <c r="P6">
-        <v>8.360523951547636</v>
+        <v>7.034432758939413</v>
       </c>
       <c r="Q6">
-        <v>0.01379079486058446</v>
+        <v>0.01150547436989857</v>
       </c>
       <c r="R6">
-        <v>25.70687863507694</v>
+        <v>25.97822803520953</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2075,16 +2171,16 @@
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F7">
-        <v>81.38048717449422</v>
+        <v>81.38584589161803</v>
       </c>
       <c r="G7">
         <v>750</v>
@@ -2102,25 +2198,25 @@
         <v>7.136755884664709</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M7">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N7">
-        <v>7136755.884664709</v>
+        <v>6858331.100045297</v>
       </c>
       <c r="O7">
-        <v>6721103.515825405</v>
+        <v>6714821.874015536</v>
       </c>
       <c r="P7">
-        <v>7.274103262249506</v>
+        <v>6.988276916801182</v>
       </c>
       <c r="Q7">
-        <v>0.01194561368754076</v>
+        <v>0.01139146868332877</v>
       </c>
       <c r="R7">
-        <v>24.01374903405449</v>
+        <v>24.20424152140054</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2131,16 +2227,16 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F8">
-        <v>81.3804871691265</v>
+        <v>81.38584589163715</v>
       </c>
       <c r="G8">
         <v>750</v>
@@ -2158,25 +2254,25 @@
         <v>7.136755884664709</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M8">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N8">
-        <v>6721103.515825405</v>
+        <v>6418248.513765049</v>
       </c>
       <c r="O8">
-        <v>6278624.703906116</v>
+        <v>6264728.051324409</v>
       </c>
       <c r="P8">
-        <v>7.77547741623041</v>
+        <v>7.004271459153653</v>
       </c>
       <c r="Q8">
-        <v>0.01279727310800325</v>
+        <v>0.01143710081462872</v>
       </c>
       <c r="R8">
-        <v>24.8275444878983</v>
+        <v>25.05375873015899</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2187,16 +2283,16 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F9">
-        <v>81.22831727516194</v>
+        <v>81.22831727490951</v>
       </c>
       <c r="G9">
         <v>750</v>
@@ -2214,25 +2310,25 @@
         <v>7.136755884664709</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M9">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N9">
-        <v>7136755.884664709</v>
+        <v>6859400.21178043</v>
       </c>
       <c r="O9">
-        <v>6722660.592442918</v>
+        <v>6716459.506157892</v>
       </c>
       <c r="P9">
-        <v>7.258856398347842</v>
+        <v>6.974750574396767</v>
       </c>
       <c r="Q9">
-        <v>0.01192048354151238</v>
+        <v>0.0113693479292416</v>
       </c>
       <c r="R9">
-        <v>24.01102797405283</v>
+        <v>24.20131129054145</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2243,16 +2339,16 @@
         <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F10">
-        <v>81.22831727453975</v>
+        <v>81.22831727489908</v>
       </c>
       <c r="G10">
         <v>750</v>
@@ -2270,25 +2366,921 @@
         <v>7.136755884664709</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N10">
-        <v>6722660.592442918</v>
+        <v>6421102.954553015</v>
       </c>
       <c r="O10">
-        <v>6281953.013357846</v>
+        <v>6268236.670132609</v>
       </c>
       <c r="P10">
-        <v>7.756912601535957</v>
+        <v>6.990714158172746</v>
       </c>
       <c r="Q10">
-        <v>0.01276650250931818</v>
+        <v>0.0114148094014921</v>
       </c>
       <c r="R10">
-        <v>24.82110435075202</v>
+        <v>25.04678415314081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11">
+        <v>99.49228889813712</v>
+      </c>
+      <c r="G11">
+        <v>750</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11">
+        <v>9.525</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L11">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M11">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N11">
+        <v>7136755.884664709</v>
+      </c>
+      <c r="O11">
+        <v>6973317.277704013</v>
+      </c>
+      <c r="P11">
+        <v>8.524363590934868</v>
+      </c>
+      <c r="Q11">
+        <v>0.01388174678835774</v>
+      </c>
+      <c r="R11">
+        <v>23.75448316263108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12">
+        <v>99.49229072751105</v>
+      </c>
+      <c r="G12">
+        <v>750</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>9.525</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L12">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M12">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N12">
+        <v>6973317.277704013</v>
+      </c>
+      <c r="O12">
+        <v>6805982.981499471</v>
+      </c>
+      <c r="P12">
+        <v>8.52953097418737</v>
+      </c>
+      <c r="Q12">
+        <v>0.01389897931285927</v>
+      </c>
+      <c r="R12">
+        <v>24.04272762225931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13">
+        <v>99.4922943128059</v>
+      </c>
+      <c r="G13">
+        <v>750</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13">
+        <v>9.525</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>9.320565</v>
+      </c>
+      <c r="N13">
+        <v>6634459.514555964</v>
+      </c>
+      <c r="O13">
+        <v>6436068.208099627</v>
+      </c>
+      <c r="P13">
+        <v>8.54054292716148</v>
+      </c>
+      <c r="Q13">
+        <v>0.01393651726927099</v>
+      </c>
+      <c r="R13">
+        <v>24.71981677312081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14">
+        <v>99.29250893596323</v>
+      </c>
+      <c r="G14">
+        <v>750</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14">
+        <v>9.525</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L14">
+        <v>15.75</v>
+      </c>
+      <c r="M14">
+        <v>9.786593249999999</v>
+      </c>
+      <c r="N14">
+        <v>7136755.884664709</v>
+      </c>
+      <c r="O14">
+        <v>6944055.769220044</v>
+      </c>
+      <c r="P14">
+        <v>8.51149468942827</v>
+      </c>
+      <c r="Q14">
+        <v>0.01386231905635063</v>
+      </c>
+      <c r="R14">
+        <v>23.80414051176006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15">
+        <v>81.63418050172346</v>
+      </c>
+      <c r="G15">
+        <v>750</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L15">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M15">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N15">
+        <v>6745891.830240281</v>
+      </c>
+      <c r="O15">
+        <v>6603529.516170594</v>
+      </c>
+      <c r="P15">
+        <v>7.007974188555713</v>
+      </c>
+      <c r="Q15">
+        <v>0.01142845033098941</v>
+      </c>
+      <c r="R15">
+        <v>24.40600946874346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16">
+        <v>81.63418052623351</v>
+      </c>
+      <c r="G16">
+        <v>750</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L16">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M16">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N16">
+        <v>6603529.516170594</v>
+      </c>
+      <c r="O16">
+        <v>6458048.176198864</v>
+      </c>
+      <c r="P16">
+        <v>7.01314586653719</v>
+      </c>
+      <c r="Q16">
+        <v>0.01144314710873312</v>
+      </c>
+      <c r="R16">
+        <v>24.67793718036555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17">
+        <v>81.63418061392046</v>
+      </c>
+      <c r="G17">
+        <v>750</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>6309231.327035528</v>
+      </c>
+      <c r="O17">
+        <v>6152065.428430624</v>
+      </c>
+      <c r="P17">
+        <v>7.023684623251784</v>
+      </c>
+      <c r="Q17">
+        <v>0.01147367853557021</v>
+      </c>
+      <c r="R17">
+        <v>25.28111487151455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18">
+        <v>81.63418062859171</v>
+      </c>
+      <c r="G18">
+        <v>750</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>6152065.428430624</v>
+      </c>
+      <c r="O18">
+        <v>5990794.180911144</v>
+      </c>
+      <c r="P18">
+        <v>7.029052503063273</v>
+      </c>
+      <c r="Q18">
+        <v>0.01148941769098077</v>
+      </c>
+      <c r="R18">
+        <v>25.61782680694184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19">
+        <v>81.38584589154178</v>
+      </c>
+      <c r="G19">
+        <v>750</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>7136755.884664709</v>
+      </c>
+      <c r="O19">
+        <v>6998918.197115603</v>
+      </c>
+      <c r="P19">
+        <v>6.977674740602195</v>
+      </c>
+      <c r="Q19">
+        <v>0.01136190259158338</v>
+      </c>
+      <c r="R19">
+        <v>23.71129183972427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20">
+        <v>81.38584589123742</v>
+      </c>
+      <c r="G20">
+        <v>750</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>6998918.197115603</v>
+      </c>
+      <c r="O20">
+        <v>6858331.100045297</v>
+      </c>
+      <c r="P20">
+        <v>6.982969774306387</v>
+      </c>
+      <c r="Q20">
+        <v>0.01137656801100575</v>
+      </c>
+      <c r="R20">
+        <v>23.95142926385898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21">
+        <v>81.38584589202698</v>
+      </c>
+      <c r="G21">
+        <v>750</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>6714821.874015536</v>
+      </c>
+      <c r="O21">
+        <v>6568200.360595782</v>
+      </c>
+      <c r="P21">
+        <v>6.993596214126236</v>
+      </c>
+      <c r="Q21">
+        <v>0.01140651259713678</v>
+      </c>
+      <c r="R21">
+        <v>24.4712182095345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22">
+        <v>81.38584589218479</v>
+      </c>
+      <c r="G22">
+        <v>750</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>6568200.360595782</v>
+      </c>
+      <c r="O22">
+        <v>6418248.513765049</v>
+      </c>
+      <c r="P22">
+        <v>6.998927712716029</v>
+      </c>
+      <c r="Q22">
+        <v>0.01142167125180345</v>
+      </c>
+      <c r="R22">
+        <v>24.75392652497118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23">
+        <v>81.2283172750017</v>
+      </c>
+      <c r="G23">
+        <v>750</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>7136755.884664709</v>
+      </c>
+      <c r="O23">
+        <v>6999442.105620132</v>
+      </c>
+      <c r="P23">
+        <v>6.96416891952314</v>
+      </c>
+      <c r="Q23">
+        <v>0.01133988844630113</v>
+      </c>
+      <c r="R23">
+        <v>23.71041041180976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24">
+        <v>81.22831727491142</v>
+      </c>
+      <c r="G24">
+        <v>750</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>6999442.105620132</v>
+      </c>
+      <c r="O24">
+        <v>6859400.21178043</v>
+      </c>
+      <c r="P24">
+        <v>6.969453704388841</v>
+      </c>
+      <c r="Q24">
+        <v>0.01135450163643708</v>
+      </c>
+      <c r="R24">
+        <v>23.94957548938042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25">
+        <v>81.22831727490704</v>
+      </c>
+      <c r="G25">
+        <v>750</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>6716459.506157892</v>
+      </c>
+      <c r="O25">
+        <v>6570432.158331867</v>
+      </c>
+      <c r="P25">
+        <v>6.980059575700312</v>
+      </c>
+      <c r="Q25">
+        <v>0.01138433911263753</v>
+      </c>
+      <c r="R25">
+        <v>24.46708339613891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26">
+        <v>81.2283172749023</v>
+      </c>
+      <c r="G26">
+        <v>750</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26">
+        <v>7.136755884664709</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>6570432.158331867</v>
+      </c>
+      <c r="O26">
+        <v>6421102.954553015</v>
+      </c>
+      <c r="P26">
+        <v>6.985380754731133</v>
+      </c>
+      <c r="Q26">
+        <v>0.01139944017042232</v>
+      </c>
+      <c r="R26">
+        <v>24.74845316933916</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +3298,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2321,43 +3313,43 @@
         <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2365,13 +3357,13 @@
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2380,16 +3372,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.142581418782571</v>
+        <v>1.145289601704904</v>
       </c>
       <c r="I2">
-        <v>43.04956567276832</v>
+        <v>44.52770420535108</v>
       </c>
       <c r="J2">
-        <v>4.504137580238835</v>
+        <v>4.658790460224023</v>
       </c>
       <c r="K2">
-        <v>6040.138577851882</v>
+        <v>6247.531182969619</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2418,13 +3410,13 @@
         <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2433,16 +3425,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.22041720825266</v>
+        <v>1.225177811210274</v>
       </c>
       <c r="I3">
-        <v>53.2000489267269</v>
+        <v>55.20998178743657</v>
       </c>
       <c r="J3">
-        <v>5.566149992379389</v>
+        <v>5.776442802311405</v>
       </c>
       <c r="K3">
-        <v>7464.318462780608</v>
+        <v>7746.32532675564</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2471,31 +3463,31 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.136675023787411</v>
+        <v>1.139196438567823</v>
       </c>
       <c r="I4">
-        <v>33.82974241397972</v>
+        <v>35.02108544179805</v>
       </c>
       <c r="J4">
-        <v>3.539497129769934</v>
+        <v>3.664143518617159</v>
       </c>
       <c r="K4">
-        <v>4746.536440964077</v>
+        <v>4913.689741335983</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2526,7 +3518,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2534,15 +3526,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>7136755.884664709</v>
@@ -2550,23 +3542,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B3">
-        <v>6642169.691428561</v>
+        <v>6634459.514555964</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B4">
-        <v>6246168.340693807</v>
+        <v>6231398.481258164</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B5">
         <v>7136755.884664709</v>
@@ -2574,31 +3566,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B6">
-        <v>6751744.420280103</v>
+        <v>6745891.830240281</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B7">
-        <v>6322487.419305922</v>
+        <v>6309231.327035528</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B8">
-        <v>5847800.109999109</v>
+        <v>5825077.649435037</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>7136755.884664709</v>
@@ -2606,23 +3598,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="B10">
-        <v>6721103.515825405</v>
+        <v>6714821.874015536</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B11">
-        <v>6278624.703906116</v>
+        <v>6264728.051324409</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B12">
         <v>7136755.884664709</v>
@@ -2630,18 +3622,146 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B13">
-        <v>6722660.592442918</v>
+        <v>6716459.506157892</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B14">
-        <v>6281953.013357846</v>
+        <v>6268236.670132609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <v>6973317.277704013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16">
+        <v>6805982.981499471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <v>6436068.208099627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>6944055.769220044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19">
+        <v>6603529.516170594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20">
+        <v>6458048.176198864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21">
+        <v>6152065.428430624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22">
+        <v>5990794.180911144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23">
+        <v>6998918.197115603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24">
+        <v>6858331.100045297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25">
+        <v>6568200.360595782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26">
+        <v>6418248.513765049</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27">
+        <v>6999442.105620132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28">
+        <v>6859400.21178043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29">
+        <v>6570432.158331867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30">
+        <v>6421102.954553015</v>
       </c>
     </row>
   </sheetData>
@@ -2659,36 +3779,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833155840772</v>
+        <v>17.65832849184002</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -2697,21 +3817,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520503109405</v>
+        <v>1150.520303308592</v>
       </c>
       <c r="G2">
-        <v>8.961979759354924E-06</v>
+        <v>-8.404145488085363E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165732303335</v>
+        <v>45.91165732323645</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -2720,21 +3840,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999979915</v>
+        <v>2991.352999993148</v>
       </c>
       <c r="G3">
-        <v>-6.714394205778204E-10</v>
+        <v>-2.290647657939915E-10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.3166599515064</v>
+        <v>35.31665995166264</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -2743,10 +3863,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.04079998455</v>
+        <v>2301.040799994729</v>
       </c>
       <c r="G4">
-        <v>-6.714378639691025E-10</v>
+        <v>-2.290570245793975E-10</v>
       </c>
     </row>
   </sheetData>
